--- a/all_detailed_similarity_results.xlsx
+++ b/all_detailed_similarity_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,50 +553,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1878ed7d1837af71cc152f38dadd3c46e8cfa1d67a9a5b05bca45c46489b3814</t>
+          <t>b55ba0f869f6408674ee9c5229f261e06ad1572c52eaa23f5a10389616d62efe</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2891b25add52a6ac1fea939b4a85c4563d547d1abd05b6adc145e43622913082</t>
+          <t>31d518cc782a7340f5caad3c85961cf724015d41207a3ee2f95201a3b2e5559b</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D2" t="n">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E2" t="n">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F2" t="n">
-        <v>87440</v>
+        <v>106936</v>
       </c>
       <c r="G2" t="n">
-        <v>85567</v>
+        <v>110592</v>
       </c>
       <c r="H2" t="n">
-        <v>85.93000000000001</v>
+        <v>68.41</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-08-31 16:27:19</t>
+          <t>2025-08-31 13:00:03</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-08-19 01:45:44</t>
+          <t>2025-08-03 16:57:30</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-31 14:55:03</t>
+          <t>2025-02-28 20:41:03</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2025-08-19 01:45:44</t>
+          <t>2025-05-27 17:18:26</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -611,45 +611,45 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>['pe', 'windows', 'executable', 'win32', 'overlay', 'peexe']</t>
+          <t>['64bits', 'overlay', 'peexe', 'pe', 'spreader', 'detect-debug-environment', 'windows', 'invalid-signature', 'signed', 'win32', 'executable']</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>['pe', 'windows', 'executable', 'win32', 'overlay', 'peexe']</t>
+          <t>['64bits', 'peexe', 'pe', 'spreader', 'windows', 'win32', 'executable']</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>T143833A9BB0E644B9F43452706AAA07F3C637B660523547CF3B58CF69753A0366B2D283</t>
+          <t>T1B3A3D087CAB765D5D47AC13692E5B33BFCB03528836067D7820987054F61ED0BA3EB98</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>T1A6833A9BB0E644B9F834567069AA07F2C533B560523A47CF3B58CF79753A0366B2D283</t>
+          <t>T187B3DF5BD6B764D9D47AC13663E5B73BF8B03528837067D7410986060F61EE0BA3EB88</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>08405e5d1e1d5d5078z222cfz12z171za1zc7z</t>
+          <t>01505655551d557bz7!z</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>08405e5d1e1d5d5078z222cfz12z171za1zc7z</t>
+          <t>0150365d1d6bz503=z</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>e8d17feab2a44c48722357e7469e871f</t>
+          <t>dd4508a2ae6c65197b17dfa4e7904974</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>e8d17feab2a44c48722357e7469e871f</t>
+          <t>f6a217af971606da677d770c7543f499</t>
         </is>
       </c>
     </row>
@@ -657,45 +657,45 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>745fc7bfe0b8be2f742b5cecceb909a1ac1cf014f49eb748a372b0f7de283088</t>
+          <t>275d09fded617d1a79b02eec50bfef0605b9ed2e7890bd084084e1657558b51d</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E3" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F3" t="n">
-        <v>87440</v>
+        <v>106936</v>
       </c>
       <c r="G3" t="n">
-        <v>87876</v>
+        <v>107008</v>
       </c>
       <c r="H3" t="n">
-        <v>86.18000000000001</v>
+        <v>93.61</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-08-31 16:27:19</t>
+          <t>2025-08-31 13:00:03</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-10-26 05:56:17</t>
+          <t>2025-08-05 03:01:57</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-08-31 14:55:03</t>
+          <t>2025-02-28 20:41:03</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2024-10-26 05:56:17</t>
+          <t>2025-05-27 17:20:14</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -710,95 +710,95 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>['pe', 'windows', 'executable', 'win32', 'overlay', 'peexe']</t>
+          <t>['64bits', 'overlay', 'peexe', 'pe', 'spreader', 'detect-debug-environment', 'windows', 'invalid-signature', 'signed', 'win32', 'executable']</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>['pe', 'windows', 'executable', 'win32', 'overlay', 'peexe']</t>
+          <t>['64bits', 'overlay', 'peexe', 'pe', 'spreader', 'detect-debug-environment', 'windows', 'win32', 'executable']</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>T143833A9BB0E644B9F43452706AAA07F3C637B660523547CF3B58CF69753A0366B2D283</t>
+          <t>T1B3A3D087CAB765D5D47AC13692E5B33BFCB03528836067D7820987054F61ED0BA3EB98</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>T141832A6FB4E644B9F434557069AA07F2C633B560123A47CF3B58CF69753A036AB2D283</t>
+          <t>T171A3D087CAB765D5D47AC13692E5B33BFCB03528836067D7820987054F61ED0BA3EB98</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>08405e5d1e1d5d5078z222cfz12z171za1zc7z</t>
+          <t>01505655551d557bz7!z</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>08405e5d1e1d5d5078z222cfz12z171za1zc7z</t>
+          <t>01505655551d557bz7!z</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>e8d17feab2a44c48722357e7469e871f</t>
+          <t>dd4508a2ae6c65197b17dfa4e7904974</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>e8d17feab2a44c48722357e7469e871f</t>
+          <t>dd4508a2ae6c65197b17dfa4e7904974</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>131f95c51cc819465fa1797f6ccacf9d494aaaff46fa3eac73ae63ffbdfd8267</t>
+          <t>9218c8607323d7667f69ef26faea57cb861f9b3888a457ed9093c1b65eefa42b</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>642f1fb5da75b6992685f8e6417f6e9a965d9f3162a417eeb88f1230a2e2dc99</t>
+          <t>d75d545269b0393bed9fd28340ff42cc51d5a1bd7d5d43694dac28f6ca61df03</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="D4" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F4" t="n">
-        <v>69</v>
+        <v>5860835</v>
       </c>
       <c r="G4" t="n">
-        <v>69</v>
+        <v>4815086</v>
       </c>
       <c r="H4" t="n">
-        <v>68.17</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-08-31 16:22:41</t>
+          <t>2025-04-28 16:36:52</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-08-30 15:21:29</t>
+          <t>2025-06-07 06:22:49</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2006-05-23 22:56:21</t>
+          <t>2025-03-18 10:23:37</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2024-08-30 15:21:29</t>
+          <t>2025-03-18 10:25:01</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -808,80 +808,100 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>suspicious</t>
+          <t>malware</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>['known-distributor', 'ps', 'powershell', 'via-tor', 'long-sleeps', 'source', 'attachment', 'ps1', 'idle']</t>
+          <t>['64bits', 'overlay', 'peexe', 'executes-dropped-file', 'pe', 'detect-debug-environment', 'windows', 'long-sleeps', 'win32', 'executable']</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>['text']</t>
+          <t>['64bits', 'overlay', 'peexe', 'pe', 'detect-debug-environment', 'windows', 'win32', 'executable']</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>T1E6A022003B0EEE2BA20B00200032E8B00808020F2CE00A3820A020B8C83308803EC228</t>
+          <t>T1F84633A7B1DC1AB5D22BD63CCC848955F2A47D061B30D29B97B11A376E2FA304D31F92</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>T1E6A022083B0EEE2BA20B00200032E8B00808020F3CE00A3820A020B8C83308803EC228</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+          <t>T152262397B1EC1AB5E127D63CCC808455F2A47D061730D29BA7A11A7B6E3FA309D31F92</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>056086655d155d1515655az919z3tz</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>046086655d155d1515655az919z3tz</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>bc758c921c6e0fda5a933c5b8a3c02e9</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>bc758c921c6e0fda5a933c5b8a3c02e9</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>b480fec95b84980e88e0e5958873b7194029ffbaa78369cfe5c0e4d64849fb32</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bffe2300191c3598f8b990df9a45ca5eb1756c426e4b9a5297711d63bfea51e2</t>
+          <t>681d4f72d603cce3557f0fd79e6af589f9a6b270093e4fa4c62ec6210db294be</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E5" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>69</v>
+        <v>8554512</v>
       </c>
       <c r="G5" t="n">
-        <v>69</v>
+        <v>8561896</v>
       </c>
       <c r="H5" t="n">
-        <v>75.44</v>
+        <v>85.48999999999999</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-08-31 16:22:41</t>
+          <t>2025-04-28 16:36:54</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2024-09-27 17:39:30</t>
+          <t>2025-03-03 16:11:11</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2006-05-23 22:56:21</t>
+          <t>2025-02-28 18:59:32</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2017-07-03 04:15:45</t>
+          <t>2025-02-27 20:37:15</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -896,79 +916,91 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>['known-distributor', 'ps', 'powershell', 'via-tor', 'long-sleeps', 'source', 'attachment', 'ps1', 'idle']</t>
+          <t>['64bits', 'overlay', 'peexe', 'executes-dropped-file', 'pe', 'detect-debug-environment', 'windows', 'long-sleeps', 'win32', 'executable']</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>['vba', 'vbs', 'source']</t>
+          <t>['64bits', 'overlay', 'peexe', 'pe', 'detect-debug-environment', 'windows', 'invalid-signature', 'signed', 'long-sleeps', 'win32', 'executable']</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.75</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>T1E6A022003B0EEE2BA20B00200032E8B00808020F2CE00A3820A020B8C83308803EC228</t>
+          <t>T148863318FAEE0CFCD556D538C56B9956F6383C0E577196CB2A90502B0F5F624CB2EB20</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>T166A022003B0EEE2BA20B00200032E8B00808020E2CE00A3820A020B8C83308803EC228</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+          <t>T1D6863319FAEE0CFCD656E538C56B8956F6383C0E577196CB2690502B0F5F624CB2EB20</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>086086655d155d1515655az939z3tz</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>086086655d155d1515655az939z3tz</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>b1c5b1beabd90d9fdabd1df0779ea832</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>b1c5b1beabd90d9fdabd1df0779ea832</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>6f570a6ab6aff575b8ffdc772a417215bb0cc4e79fb31507b4c705c319a0565a</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>a0fa231e91d686a3c5d053d6eb721e1e76073f39cdaed861395e3a6d44e8ba73</t>
+          <t>35dca05612aede9c1db55a868b1cd314b5d05bac00bed577fd0d437103c2a4a4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="D6" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E6" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F6" t="n">
-        <v>5769416</v>
+        <v>8554512</v>
       </c>
       <c r="G6" t="n">
-        <v>5907215</v>
+        <v>8561920</v>
       </c>
       <c r="H6" t="n">
-        <v>65.15000000000001</v>
+        <v>85.48999999999999</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-08-12 11:31:43</t>
+          <t>2025-04-28 16:36:54</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2025-03-06 22:45:19</t>
+          <t>2025-04-28 16:36:57</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2014-02-15 18:50:05</t>
+          <t>2025-02-28 18:59:32</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2014-09-20 17:20:06</t>
+          <t>2025-02-28 19:16:15</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -983,95 +1015,91 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>['signed', 'pe', 'windows', 'executable', 'win32', 'calls-wmi', 'checks-user-input', 'overlay', 'nsis', 'detect-debug-environment', 'peexe', 'runtime-modules', 'direct-cpu-clock-access', 'upx', 'checks-network-adapters']</t>
+          <t>['64bits', 'overlay', 'peexe', 'executes-dropped-file', 'pe', 'detect-debug-environment', 'windows', 'long-sleeps', 'win32', 'executable']</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>['pe', 'windows', 'executable', 'win32', 'spreader', 'overlay', 'nsis', 'peexe', 'upx']</t>
+          <t>['64bits', 'overlay', 'peexe', 'pe', 'detect-debug-environment', 'windows', 'invalid-signature', 'signed', 'long-sleeps', 'win32', 'executable']</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>T11A463352E85CD5EAF7D2B931AE9F8B94ADF37C616E062203B755322CB132240541F92F</t>
+          <t>T148863318FAEE0CFCD556D538C56B9956F6383C0E577196CB2A90502B0F5F624CB2EB20</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>T185563342B85DE1EAE7D299305EAF8B649AF37C319D132703BF917228B5F2240541E91F</t>
+          <t>T1B6863319FAEE0CFCD656D538C56B8956F6383C0B577196CB2A90502B0F5F624CB2EB20</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>056056655d5c05509043z8003b7z47z62z3e03dz</t>
+          <t>086086655d155d1515655az939z3tz</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0560976d15155c0d1d1d1az1a02=z</t>
+          <t>086086655d155d1515655az939z3tz</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>099c0646ea7282d232219f8807883be0</t>
+          <t>b1c5b1beabd90d9fdabd1df0779ea832</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>3b3a8136dd15a0463dcf01e9f6c85bbf</t>
+          <t>b1c5b1beabd90d9fdabd1df0779ea832</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>086e4908d2bf5cd288c554af00ee39c483706800738dfcdbcab5a9e383277a17</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>48d38df8cf00f1afc46afc952a1442b4e450ab9d35beeae52b3790d3608f6a73</t>
+          <t>67173036149718a3a06847d20d0f30616e5b9d6796e050dc520259a15588ddc8</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E7" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" t="n">
-        <v>1506728</v>
+        <v>8554512</v>
       </c>
       <c r="G7" t="n">
-        <v>1506728</v>
+        <v>8561896</v>
       </c>
       <c r="H7" t="n">
-        <v>96.08</v>
+        <v>87.56999999999999</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-08-29 03:32:06</t>
+          <t>2025-04-28 16:36:54</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2024-01-04 05:45:29</t>
+          <t>2025-07-15 15:20:12</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-08-29 03:32:06</t>
+          <t>2025-02-28 18:59:32</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2023-12-30 02:55:06</t>
+          <t>2025-02-27 20:40:17</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1086,214 +1114,214 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>['signed', 'pe', 'windows', 'executable', 'win32', 'checks-cpu-name', 'overlay', 'invalid-signature', 'checks-user-input', 'detect-debug-environment', 'peexe', 'long-sleeps']</t>
+          <t>['64bits', 'overlay', 'peexe', 'executes-dropped-file', 'pe', 'detect-debug-environment', 'windows', 'long-sleeps', 'win32', 'executable']</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>['signed', 'pe', 'windows', 'executable', 'win32', 'checks-cpu-name', 'overlay', 'checks-user-input', 'detect-debug-environment', 'peexe', 'long-sleeps']</t>
+          <t>['64bits', 'overlay', 'peexe', 'executes-dropped-file', 'pe', 'detect-debug-environment', 'windows', 'invalid-signature', 'signed', 'long-sleeps', 'win32', 'executable']</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>T1F165331931E0A57BD493C4342EA8D0186BA7B9314CFC9899B3EC294C4F7BDD4B8267E5</t>
+          <t>T148863318FAEE0CFCD556D538C56B9956F6383C0E577196CB2A90502B0F5F624CB2EB20</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>T13265331931E0A57BD493C4342EA8D0186BA7B9314CFC9899B3EC294C4F7BDD4B8267E5</t>
+          <t>T112863319FAEE0CFCD656E538C56B9956F6383C0E577196CB2690502B0F5F620CB2EB20</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0160866d1c0d1c051505105016z1c9z5bz1fz</t>
+          <t>086086655d155d1515655az939z3tz</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0160866d1c0d1c051505105016z1c9z5bz1fz</t>
+          <t>086086655d155d1515655az939z3tz</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>884310b1928934402ea6fec1dbd3cf5e</t>
+          <t>b1c5b1beabd90d9fdabd1df0779ea832</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>884310b1928934402ea6fec1dbd3cf5e</t>
+          <t>b1c5b1beabd90d9fdabd1df0779ea832</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1342ad4e99d000e27f3bcefe6ddc2c5baf094e405bd4d5a922608d174b343c30</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>33f23acc08a0338d9c6c6e8dafa56ba1b95899fc884bbce401d1d071c7817d52</t>
+          <t>08f1ca6071cb206f53c2e81568b73d4bee7ac6a019d93d3ceaac7637b6dc891a</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="F8" t="n">
-        <v>3264072</v>
+        <v>8554512</v>
       </c>
       <c r="G8" t="n">
-        <v>3067904</v>
+        <v>8561920</v>
       </c>
       <c r="H8" t="n">
-        <v>71.54000000000001</v>
+        <v>87.56999999999999</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-08-11 02:07:21</t>
+          <t>2025-04-28 16:36:54</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2025-01-12 05:43:29</t>
+          <t>2025-04-28 16:36:53</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2024-03-20 08:53:58</t>
+          <t>2025-02-28 18:59:32</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2024-12-06 18:25:28</t>
+          <t>2025-02-28 19:16:14</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>malware</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>malware</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>['signed', '64bits', 'pe', 'windows', 'executable', 'win32', 'overlay', 'peexe', 'native']</t>
+          <t>['64bits', 'overlay', 'peexe', 'executes-dropped-file', 'pe', 'detect-debug-environment', 'windows', 'long-sleeps', 'win32', 'executable']</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>['64bits', 'pe', 'windows', 'executable', 'win32', 'peexe', 'native']</t>
+          <t>['64bits', 'overlay', 'peexe', 'executes-dropped-file', 'pe', 'detect-debug-environment', 'windows', 'invalid-signature', 'signed', 'long-sleeps', 'win32', 'executable']</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>T1A6E5025B049183F4E4D70744D0CA078F73D17245DAAA1E1E28DAA8427793EAB868F77F</t>
+          <t>T148863318FAEE0CFCD556D538C56B9956F6383C0E577196CB2A90502B0F5F624CB2EB20</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>T139E5025B089143F4E5E70540D18A0B8DE3C07259DAEB6E1E38CE580277D3D9B96CA7AF</t>
+          <t>T14E863319FAEE0CFCD656E538C56B8956F6383C0B577196CB2690502B0F5F624CB2EB20</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>036086655d156616751519z16z1axz</t>
+          <t>086086655d155d1515655az939z3tz</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>036076656d156616751jzfxz</t>
+          <t>086086655d155d1515655az939z3tz</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1048b84988c28309d4aef349434ee933</t>
+          <t>b1c5b1beabd90d9fdabd1df0779ea832</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>329cc236ef7d54578021dbe35c4e1cc0</t>
+          <t>b1c5b1beabd90d9fdabd1df0779ea832</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>35dca05612aede9c1db55a868b1cd314b5d05bac00bed577fd0d437103c2a4a4</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>df6cf2c5196f6dcea42968a536614645959453e62a9a3c58b93aa784c58e1da9</t>
+          <t>681d4f72d603cce3557f0fd79e6af589f9a6b270093e4fa4c62ec6210db294be</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>3264072</v>
+        <v>8561920</v>
       </c>
       <c r="G9" t="n">
-        <v>3078344</v>
+        <v>8561896</v>
       </c>
       <c r="H9" t="n">
-        <v>72.15000000000001</v>
+        <v>95.42</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-08-11 02:07:21</t>
+          <t>2025-04-28 16:36:57</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2025-07-15 03:21:08</t>
+          <t>2025-03-03 16:11:11</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2024-03-20 08:53:58</t>
+          <t>2025-02-28 19:16:15</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2024-12-19 21:21:17</t>
+          <t>2025-02-27 20:37:15</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>malware</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>suspicious</t>
+          <t>malware</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>['signed', '64bits', 'pe', 'windows', 'executable', 'win32', 'overlay', 'peexe', 'native']</t>
+          <t>['64bits', 'overlay', 'peexe', 'pe', 'detect-debug-environment', 'windows', 'invalid-signature', 'signed', 'long-sleeps', 'win32', 'executable']</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>['64bits', 'signed', 'pe', 'windows', 'executable', 'win32', 'overlay', 'peexe', 'native']</t>
+          <t>['64bits', 'overlay', 'peexe', 'pe', 'detect-debug-environment', 'windows', 'invalid-signature', 'signed', 'long-sleeps', 'win32', 'executable']</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,135 +1329,131 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>T1A6E5025B049183F4E4D70744D0CA078F73D17245DAAA1E1E28DAA8427793EAB868F77F</t>
+          <t>T1B6863319FAEE0CFCD656D538C56B8956F6383C0B577196CB2A90502B0F5F624CB2EB20</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>T168E5025B089143F4E5E70540D18A0B8DE3C07259DAEB6E1E38CE580277D3E9796CA7AF</t>
+          <t>T1D6863319FAEE0CFCD656E538C56B8956F6383C0E577196CB2690502B0F5F624CB2EB20</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>036086655d156616751519z16z1axz</t>
+          <t>086086655d155d1515655az939z3tz</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>036076656d156616751jzfxz</t>
+          <t>086086655d155d1515655az939z3tz</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1048b84988c28309d4aef349434ee933</t>
+          <t>b1c5b1beabd90d9fdabd1df0779ea832</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>329cc236ef7d54578021dbe35c4e1cc0</t>
+          <t>b1c5b1beabd90d9fdabd1df0779ea832</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>5444c6d3f82cd10f6204df211041fb7c4333ed3265678aa246a955fba394d10d</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>b4545531e0fc3bc952b28fb24d3e2e70361ab18e41befd11fc3a0e75ddbf2285</t>
+          <t>08f1ca6071cb206f53c2e81568b73d4bee7ac6a019d93d3ceaac7637b6dc891a</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="F10" t="n">
-        <v>3449584</v>
+        <v>8561920</v>
       </c>
       <c r="G10" t="n">
-        <v>3449584</v>
+        <v>8561920</v>
       </c>
       <c r="H10" t="n">
-        <v>98.17</v>
+        <v>93.33</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-08-26 19:51:47</t>
+          <t>2025-04-28 16:36:57</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2024-08-16 07:11:37</t>
+          <t>2025-04-28 16:36:53</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2023-06-15 18:08:15</t>
+          <t>2025-02-28 19:16:15</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2023-06-21 12:37:47</t>
+          <t>2025-02-28 19:16:14</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>malware</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>malware</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>['signed', 'pe', 'windows', 'executable', 'win32', 'checks-user-input', 'overlay', 'detect-debug-environment', 'peexe', 'idle']</t>
+          <t>['64bits', 'overlay', 'peexe', 'pe', 'detect-debug-environment', 'windows', 'invalid-signature', 'signed', 'long-sleeps', 'win32', 'executable']</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>['signed', 'pe', 'windows', 'executable', 'win32', 'checks-user-input', 'overlay', 'detect-debug-environment', 'peexe', 'idle']</t>
+          <t>['64bits', 'overlay', 'peexe', 'executes-dropped-file', 'pe', 'detect-debug-environment', 'windows', 'invalid-signature', 'signed', 'long-sleeps', 'win32', 'executable']</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>T129F55D11BB46C237E5630AB09EBD6B5E002DAD752B3555CBE3C43F5D1A70AC21E3262B</t>
+          <t>T1B6863319FAEE0CFCD656D538C56B8956F6383C0B577196CB2A90502B0F5F624CB2EB20</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>T1D3F55D11BB46C237E5630AB09EBD6B5E002DAD752B3555CBE3C43F5D1A70AC21E3262B</t>
+          <t>T14E863319FAEE0CFCD656E538C56B8956F6383C0B577196CB2690502B0F5F624CB2EB20</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>036056655d55656130201002d00736z130a5zd02007503081z18a009c002</t>
+          <t>086086655d155d1515655az939z3tz</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>036056655d55656130201002d00736z130a5zd02007503081z18a009c002</t>
+          <t>086086655d155d1515655az939z3tz</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>735e8567542b35bbd86d43599a164139</t>
+          <t>b1c5b1beabd90d9fdabd1df0779ea832</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>735e8567542b35bbd86d43599a164139</t>
+          <t>b1c5b1beabd90d9fdabd1df0779ea832</t>
         </is>
       </c>
     </row>
@@ -1437,98 +1461,197 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0e130c9b07d7634261b704830828f528da841dd3c90150a9f7561236ed179b6e</t>
+          <t>b480fec95b84980e88e0e5958873b7194029ffbaa78369cfe5c0e4d64849fb32</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="F11" t="n">
-        <v>3449584</v>
+        <v>8561920</v>
       </c>
       <c r="G11" t="n">
-        <v>3449584</v>
+        <v>8554512</v>
       </c>
       <c r="H11" t="n">
-        <v>90.67</v>
+        <v>85.48999999999999</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-08-26 19:51:47</t>
+          <t>2025-04-28 16:36:57</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2023-08-02 02:40:22</t>
+          <t>2025-04-28 16:36:54</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2023-06-15 18:08:15</t>
+          <t>2025-02-28 19:16:15</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2023-06-27 16:51:19</t>
+          <t>2025-02-28 18:59:32</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>malware</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>malware</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>['signed', 'pe', 'windows', 'executable', 'win32', 'checks-user-input', 'overlay', 'detect-debug-environment', 'peexe', 'idle']</t>
+          <t>['64bits', 'overlay', 'peexe', 'pe', 'detect-debug-environment', 'windows', 'invalid-signature', 'signed', 'long-sleeps', 'win32', 'executable']</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>['signed', 'pe', 'windows', 'executable', 'win32', 'overlay', 'peexe']</t>
+          <t>['64bits', 'overlay', 'peexe', 'executes-dropped-file', 'pe', 'detect-debug-environment', 'windows', 'long-sleeps', 'win32', 'executable']</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>T129F55D11BB46C237E5630AB09EBD6B5E002DAD752B3555CBE3C43F5D1A70AC21E3262B</t>
+          <t>T1B6863319FAEE0CFCD656D538C56B8956F6383C0B577196CB2A90502B0F5F624CB2EB20</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>T198F55D11BB46C237E5630AB09EBD6B5E002DAD752B3555CBE3C43F5D1A70AC21E3262B</t>
+          <t>T148863318FAEE0CFCD556D538C56B9956F6383C0E577196CB2A90502B0F5F624CB2EB20</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>036056655d55656130201002d00736z130a5zd02007503081z18a009c002</t>
+          <t>086086655d155d1515655az939z3tz</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>036056655d55656130201002d00736z130a5zd02007503081z18a009c002</t>
+          <t>086086655d155d1515655az939z3tz</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>735e8567542b35bbd86d43599a164139</t>
+          <t>b1c5b1beabd90d9fdabd1df0779ea832</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>735e8567542b35bbd86d43599a164139</t>
+          <t>b1c5b1beabd90d9fdabd1df0779ea832</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>67173036149718a3a06847d20d0f30616e5b9d6796e050dc520259a15588ddc8</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>45</v>
+      </c>
+      <c r="D12" t="n">
+        <v>47</v>
+      </c>
+      <c r="E12" t="n">
+        <v>45</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8561920</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8561896</v>
+      </c>
+      <c r="H12" t="n">
+        <v>89.67</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-04-28 16:36:57</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2025-07-15 15:20:12</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2025-02-28 19:16:15</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2025-02-27 20:40:17</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>malware</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>malware</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>['64bits', 'overlay', 'peexe', 'pe', 'detect-debug-environment', 'windows', 'invalid-signature', 'signed', 'long-sleeps', 'win32', 'executable']</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>['64bits', 'overlay', 'peexe', 'executes-dropped-file', 'pe', 'detect-debug-environment', 'windows', 'invalid-signature', 'signed', 'long-sleeps', 'win32', 'executable']</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>T1B6863319FAEE0CFCD656D538C56B8956F6383C0B577196CB2A90502B0F5F624CB2EB20</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>T112863319FAEE0CFCD656E538C56B9956F6383C0E577196CB2690502B0F5F620CB2EB20</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>086086655d155d1515655az939z3tz</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>086086655d155d1515655az939z3tz</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>b1c5b1beabd90d9fdabd1df0779ea832</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>b1c5b1beabd90d9fdabd1df0779ea832</t>
         </is>
       </c>
     </row>
